--- a/Outputs/Bill of Materials-diyBMS.xlsx
+++ b/Outputs/Bill of Materials-diyBMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hitech95\Documents\Altium\Projects\diyBMS\Project Outputs for diyBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F594F5BF-DF82-4468-8C18-4E0852D3FA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{572D477A-EC3C-4138-A2AF-F662C012B145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{E0367767-69A4-4052-8078-C6BABCE457A6}"/>
+    <workbookView xWindow="1440" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{99D07D58-614F-435B-8882-DAFD88D059BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-diyBMS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="136">
   <si>
     <t>Comment</t>
   </si>
@@ -117,10 +117,10 @@
     <t>C4</t>
   </si>
   <si>
-    <t>C51210</t>
-  </si>
-  <si>
-    <t>CL21B102KBANNNC</t>
+    <t>C46653</t>
+  </si>
+  <si>
+    <t>CL21B102KBCNNNC</t>
   </si>
   <si>
     <t>10nF</t>
@@ -162,7 +162,13 @@
     <t>D3</t>
   </si>
   <si>
-    <t>C2295</t>
+    <t>C84256</t>
+  </si>
+  <si>
+    <t>Foshan NationStar Optoelectronics</t>
+  </si>
+  <si>
+    <t>FC-2012HRK-620D</t>
   </si>
   <si>
     <t>JST PH 4POS 2.00mm</t>
@@ -294,6 +300,9 @@
     <t>C17414</t>
   </si>
   <si>
+    <t>0805W8F1002T5E</t>
+  </si>
+  <si>
     <t>1KΩ ±1%</t>
   </si>
   <si>
@@ -303,6 +312,9 @@
     <t>C17513</t>
   </si>
   <si>
+    <t>0805W8F1001T5E</t>
+  </si>
+  <si>
     <t>402KΩ ±1%</t>
   </si>
   <si>
@@ -348,6 +360,9 @@
     <t>C17713</t>
   </si>
   <si>
+    <t>0805W8F4702T5E</t>
+  </si>
+  <si>
     <t>510Ω ±1%</t>
   </si>
   <si>
@@ -357,6 +372,9 @@
     <t>C17734</t>
   </si>
   <si>
+    <t>0805W8F5100T5E</t>
+  </si>
+  <si>
     <t>2.2KΩ ±1%</t>
   </si>
   <si>
@@ -366,6 +384,9 @@
     <t>C17520</t>
   </si>
   <si>
+    <t>0805W8F2201T5E</t>
+  </si>
+  <si>
     <t>51KΩ ±1%</t>
   </si>
   <si>
@@ -373,6 +394,9 @@
   </si>
   <si>
     <t>C17737</t>
+  </si>
+  <si>
+    <t>0805W8F5102T5E</t>
   </si>
   <si>
     <t>ATTINY841-SSU</t>
@@ -799,7 +823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A302A4B-5096-43A2-BC83-5E9A6F129575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32044259-C655-4873-AF9A-1372C0B45FEB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1009,7 +1033,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1028,18 +1052,22 @@
       <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1048,24 +1076,24 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -1074,24 +1102,24 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1100,24 +1128,24 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -1126,76 +1154,76 @@
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4">
         <v>12</v>
@@ -1204,24 +1232,24 @@
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -1230,24 +1258,24 @@
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1256,22 +1284,24 @@
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1280,22 +1310,24 @@
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1304,24 +1336,24 @@
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1330,24 +1362,24 @@
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1356,24 +1388,24 @@
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4">
         <v>5</v>
@@ -1382,24 +1414,24 @@
         <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -1408,24 +1440,24 @@
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
@@ -1434,24 +1466,24 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1460,22 +1492,24 @@
         <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1484,24 +1518,24 @@
         <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1510,24 +1544,24 @@
         <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1535,15 +1569,15 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>